--- a/medicine/Enfance/Renée_Rahir/Renée_Rahir.xlsx
+++ b/medicine/Enfance/Renée_Rahir/Renée_Rahir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Rahir</t>
+          <t>Renée_Rahir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Renée Rahir, née le 4 février 1956 à Verviers (province de Liège), est une autrice de bande dessinée et de littérature jeunesse belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Rahir</t>
+          <t>Renée_Rahir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Renée Rahir naît le 4 février 1956 à Verviers[1]. Elle a une sœur jumelle Jeanine[1] avec qui elle partage un goût commun de la science-fiction et la passion de la faune et de la flore[2]. Les jumelles étudient à l'École supérieure des arts Saint-Luc de Liège[3]. De 1985 à 1988, Renée Rahir collabore au journal Tintin où elle livre différents courts récits souvent de science-fiction qu'elle réalise seule mais encore des articles et reportages divers[3]. Elle écrit aussi des scénarios pour sa sœur ou encore pour Olivier Grenson[4], éditions du Lombard[3]. On retrouve également sa signature dans 2 numéros de Super Tintin de 1986 à 1987[5]. À partir de 1991, elle réalise seule une série de bande dessinée fantastique intitulée Fann le lion publiée aux éditions Casterman[3]. Le premier tome Adieu Kilimandjaro lui vaut d'être primée au festival BD Durbuy au titre de meilleur premier album en 1991[6].
-La même année, elle entame la trilogie d'aventure coécrite avec sa sœur Barry Lan[3] publiée dans la collection « Grafica » aux Éditions Glénat. Le deuxième opus de la série : Partout l'éternité connaît une prépublication partielle en noir et blanc dans la revue Vécu no 53 de septembre 1992[7]. Il est primé à BD Durbuy en 1992[8]. C'est en 1994 que le tome L'Irbis clôture cette saga.
-Elle écrit aussi pour les enfants, des albums et illustrations naturalistes, pour les Éditions Averbode et Hemma[9] entre autres pour la série Pop-Up Noël de Carlos Busquet[10]. Elle collabore également aux magazines Signatures et Week BD (Suisse) avec des reportages[3]. En 1995, elle publie également un album d'illustration pour enfants aux éditions Clavis Wolfe Wit en Beertje Zwart[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Renée Rahir naît le 4 février 1956 à Verviers. Elle a une sœur jumelle Jeanine avec qui elle partage un goût commun de la science-fiction et la passion de la faune et de la flore. Les jumelles étudient à l'École supérieure des arts Saint-Luc de Liège. De 1985 à 1988, Renée Rahir collabore au journal Tintin où elle livre différents courts récits souvent de science-fiction qu'elle réalise seule mais encore des articles et reportages divers. Elle écrit aussi des scénarios pour sa sœur ou encore pour Olivier Grenson, éditions du Lombard. On retrouve également sa signature dans 2 numéros de Super Tintin de 1986 à 1987. À partir de 1991, elle réalise seule une série de bande dessinée fantastique intitulée Fann le lion publiée aux éditions Casterman. Le premier tome Adieu Kilimandjaro lui vaut d'être primée au festival BD Durbuy au titre de meilleur premier album en 1991.
+La même année, elle entame la trilogie d'aventure coécrite avec sa sœur Barry Lan publiée dans la collection « Grafica » aux Éditions Glénat. Le deuxième opus de la série : Partout l'éternité connaît une prépublication partielle en noir et blanc dans la revue Vécu no 53 de septembre 1992. Il est primé à BD Durbuy en 1992. C'est en 1994 que le tome L'Irbis clôture cette saga.
+Elle écrit aussi pour les enfants, des albums et illustrations naturalistes, pour les Éditions Averbode et Hemma entre autres pour la série Pop-Up Noël de Carlos Busquet. Elle collabore également aux magazines Signatures et Week BD (Suisse) avec des reportages. En 1995, elle publie également un album d'illustration pour enfants aux éditions Clavis Wolfe Wit en Beertje Zwart.
 En outre, elle participe à l'album collectif L'Oiseau de la paix en 1986.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Rahir</t>
+          <t>Renée_Rahir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle demeure à Stavelot[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle demeure à Stavelot.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Rahir</t>
+          <t>Renée_Rahir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Autrice
-Contes pour enfants sages, adaptation de Renée Rahir, Hemma, coll. « Jolis rêves », no 10, 1990 (OCLC 1400622031)
+          <t>Autrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Contes pour enfants sages, adaptation de Renée Rahir, Hemma, coll. « Jolis rêves », no 10, 1990 (OCLC 1400622031)
 La Fleur magique, Hemma, coll. « Le livre de la jungle », no 3, 1991  (ISBN 2-8006-1573-7)
 Le Roi des éléphants, Hemma, coll. « Le livre de la jungle », no 7, 1991  (ISBN 2-8006-1577-X)
 Fan-Fan des grands bois, illustré par Jeanine Rahir, Hemma, coll. « Mini-club », no 55, 1991  (ISBN 2-8006-1696-2),Réédition en 2003, illustré par Gauthier Dosimont,  (ISBN 978-2-8006-9355-2).
@@ -614,20 +635,7 @@
 Zizou et Zazie vont au parc, illustré par Natacha Toutain-Diamant, Hemma, coll. « Bout de chou », no 4, 1996  (ISBN 2-8006-5355-8)
 La Nuit de Noël, illustré par Carlos Busquets, Hemma, 1997  (ISBN 2-8006-5773-1)
 Mes plus belles histoires, Hemma, 1999  (ISBN 9782800671574)
-Le Grand Champ[11],[12], Éditions Averbode, Récits-Express, no 5, 2003 (OCLC 1010031459).
-Albums de bande dessinée
-Bobul et Schnouf
-Bobul et Schnouf, H. Dessain, 1987Scénario et dessin : Guy Counhaye - Couleurs : Jeanine et Renée Rahir
-Fann le lion
-1 Adieu Kilimandjaro, Casterman, Tournai, septembre 1991Scénario, dessin et couleurs : Renée Rahir -  (ISBN 2-203-32901-7)
-2 Hook stock farm, Casterman, Tournai, avril 1992Scénario, dessin et couleurs : Renée Rahir -  (ISBN 2-203-32902-5)
-3 Triple traque, Casterman, Tournai, août 1993Scénario, dessin et couleurs : Renée Rahir -  (ISBN 2-203-32903-3)
-Barry Lan
-1 Vous veillerez sur mon sommeil, Glénat, coll. « Grafica », Grenoble, avril 1991Scénario : Jeanine et Renée Rahir - Dessin et couleurs : Jeanine Rahir -  (ISBN 272341308X)
-2 Partout l'éternité[8], Glénat, coll. « Grafica », Grenoble, juillet 1992Scénario : Jeanine et Renée Rahir - Dessin et couleurs : Jeanine Rahir -  (ISBN 272341454X)
-3 L'Irbis, Glénat, coll. « Grafica », Grenoble, septembre 1994Scénario : Jeanine et Renée Rahir - Dessin et couleurs : Jeanine Rahir -  (ISBN 2723416925)
-Collectifs
-L'Oiseau de la paix[13], Association du livre de la paix, janvier 1986Scénario et couleurs : collectif - Dessin : collectif dont Renée Rahir,40 auteurs réunis pour un album pour la paix.</t>
+Le Grand Champ Éditions Averbode, Récits-Express, no 5, 2003 (OCLC 1010031459).</t>
         </is>
       </c>
     </row>
@@ -637,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ren%C3%A9e_Rahir</t>
+          <t>Renée_Rahir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -652,13 +660,176 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bobul et Schnouf
+Bobul et Schnouf, H. Dessain, 1987Scénario et dessin : Guy Counhaye - Couleurs : Jeanine et Renée Rahir</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Renée_Rahir</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9e_Rahir</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fann le lion</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1 Adieu Kilimandjaro, Casterman, Tournai, septembre 1991Scénario, dessin et couleurs : Renée Rahir -  (ISBN 2-203-32901-7)
+2 Hook stock farm, Casterman, Tournai, avril 1992Scénario, dessin et couleurs : Renée Rahir -  (ISBN 2-203-32902-5)
+3 Triple traque, Casterman, Tournai, août 1993Scénario, dessin et couleurs : Renée Rahir -  (ISBN 2-203-32903-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Renée_Rahir</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9e_Rahir</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Barry Lan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1 Vous veillerez sur mon sommeil, Glénat, coll. « Grafica », Grenoble, avril 1991Scénario : Jeanine et Renée Rahir - Dessin et couleurs : Jeanine Rahir -  (ISBN 272341308X)
+2 Partout l'éternité, Glénat, coll. « Grafica », Grenoble, juillet 1992Scénario : Jeanine et Renée Rahir - Dessin et couleurs : Jeanine Rahir -  (ISBN 272341454X)
+3 L'Irbis, Glénat, coll. « Grafica », Grenoble, septembre 1994Scénario : Jeanine et Renée Rahir - Dessin et couleurs : Jeanine Rahir -  (ISBN 2723416925)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Renée_Rahir</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9e_Rahir</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'Oiseau de la paix, Association du livre de la paix, janvier 1986Scénario et couleurs : collectif - Dessin : collectif dont Renée Rahir,40 auteurs réunis pour un album pour la paix.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Renée_Rahir</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9e_Rahir</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1991 : prix Espoir au festival BD Durbuy pour Adieu Kilimandjaro, série Fann le lion - Casterman[6],[8] ;
-1992 : prix au festival BD Durbuy pour Partout l'éternité[8] partagé avec Jeanine Rahir.</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1991 : prix Espoir au festival BD Durbuy pour Adieu Kilimandjaro, série Fann le lion - Casterman, ;
+1992 : prix au festival BD Durbuy pour Partout l'éternité partagé avec Jeanine Rahir.</t>
         </is>
       </c>
     </row>
